--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>149312.3537850029</v>
+        <v>150551.498763821</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654755</v>
+        <v>19282386.12654756</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357856</v>
+        <v>9802884.450357869</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5446361.922997147</v>
+        <v>5434376.351891369</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>235.3721011584466</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>342.0899517239993</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -744,13 +746,13 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897921</v>
+        <v>103.6549143897922</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>93.11323406457223</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
         <v>52.84233230531351</v>
@@ -817,7 +819,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>161.683605144497</v>
@@ -826,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>108.0490429211395</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>98.40358239513702</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>186.4933242596469</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>122.1729412388299</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1062,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>172.8501380457784</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>291.9436117325926</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1145,7 +1147,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>124.7579643360449</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.5019652318651</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>157.945011686259</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>143.4324547506683</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
         <v>142.3583058069271</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>114.7380594336481</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>252.8252773014384</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.975558987749</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>68.83205621563052</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>143.4324547506684</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>24.29679921818541</v>
       </c>
     </row>
     <row r="18">
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2017,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>146.4381493758355</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>108.9577095134814</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>221.1931489320475</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>5.062753187714224</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2141,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2251,7 +2253,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>76.89977253946795</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>265.5672156808874</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2318,10 +2320,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>50.90265861542504</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>59.16387905291197</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2375,7 +2377,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.98727664058468</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>4.378995526347924</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -2524,16 +2526,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2558,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>103.7341488410445</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>139.2469354413645</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -2728,10 +2730,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>16.55792314090636</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2763,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>44.67506049370346</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>208.0459955848478</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -2849,10 +2851,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>323.4563024557443</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>98.26334559068088</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.8831777552862</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>167.2258230149176</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.34600117010329</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>12.82988994718031</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>128.8925684673743</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -3323,16 +3325,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>303.937323754683</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3439,7 +3441,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>25.13775189891307</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>180.0196592840964</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>238.8869537746429</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.9123629113390416</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>73.50111029899465</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3724,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>69.61444029309537</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>62.48265167486125</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>24.12958620662185</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,10 +3915,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>161.8970328977321</v>
       </c>
       <c r="W43" t="n">
-        <v>146.3034971231923</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>67.81237631315172</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>104.7223743992567</v>
       </c>
     </row>
     <row r="45">
@@ -4138,7 +4140,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>39.18432701099631</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274.6615895905708</v>
+        <v>808.4343380947867</v>
       </c>
       <c r="C2" t="n">
-        <v>36.91199246082674</v>
+        <v>808.4343380947867</v>
       </c>
       <c r="D2" t="n">
-        <v>36.91199246082674</v>
+        <v>808.4343380947867</v>
       </c>
       <c r="E2" t="n">
-        <v>36.91199246082674</v>
+        <v>382.4573982426442</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M2" t="n">
-        <v>399.5154512777223</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N2" t="n">
-        <v>815.1719019525203</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.957808655251</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q2" t="n">
         <v>1728.043288159434</v>
@@ -4358,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="X2" t="n">
-        <v>679.9988596356804</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.6615895905708</v>
+        <v>1228.282702386317</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M3" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N3" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O3" t="n">
-        <v>1222.18129514588</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P3" t="n">
-        <v>1678.967201848611</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q3" t="n">
         <v>1845.599623041337</v>
@@ -4437,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4446,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="4">
@@ -4462,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1020.32454672534</v>
+        <v>575.3459868360169</v>
       </c>
       <c r="C4" t="n">
-        <v>848.3519836042556</v>
+        <v>575.3459868360169</v>
       </c>
       <c r="D4" t="n">
-        <v>685.0352107310263</v>
+        <v>412.0292139627876</v>
       </c>
       <c r="E4" t="n">
-        <v>518.8270048838798</v>
+        <v>245.8210081156411</v>
       </c>
       <c r="F4" t="n">
-        <v>346.9652306584402</v>
+        <v>245.8210081156411</v>
       </c>
       <c r="G4" t="n">
-        <v>180.7082609526723</v>
+        <v>245.8210081156411</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O4" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P4" t="n">
         <v>1845.599623041337</v>
@@ -4516,22 +4518,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W4" t="n">
-        <v>1679.397180301858</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X4" t="n">
-        <v>1436.833283747663</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="Y4" t="n">
-        <v>1210.490515437405</v>
+        <v>765.5119555480826</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>888.013114123569</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="C5" t="n">
-        <v>888.013114123569</v>
+        <v>1022.307543354984</v>
       </c>
       <c r="D5" t="n">
-        <v>888.013114123569</v>
+        <v>1022.307543354984</v>
       </c>
       <c r="E5" t="n">
-        <v>462.0361742714265</v>
+        <v>596.3306035028412</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>171.2064216922414</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>171.2064216922414</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>475.2419029331441</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="L5" t="n">
-        <v>932.027809635875</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="M5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4598,19 +4600,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1657.222527829572</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1299.733112955822</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1299.733112955822</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X5" t="n">
-        <v>888.013114123569</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y5" t="n">
-        <v>888.013114123569</v>
+        <v>1449.208273341683</v>
       </c>
     </row>
     <row r="6">
@@ -4626,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K6" t="n">
-        <v>308.6094817404178</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L6" t="n">
-        <v>765.3953884431487</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M6" t="n">
-        <v>1222.18129514588</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O6" t="n">
-        <v>1678.967201848611</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P6" t="n">
-        <v>1678.967201848611</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
         <v>1845.599623041337</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1020.32454672534</v>
+        <v>471.969896714864</v>
       </c>
       <c r="C7" t="n">
-        <v>848.3519836042556</v>
+        <v>299.9973335937801</v>
       </c>
       <c r="D7" t="n">
-        <v>685.0352107310263</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E7" t="n">
-        <v>518.8270048838798</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U7" t="n">
-        <v>1210.490515437405</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>1210.490515437405</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W7" t="n">
-        <v>1210.490515437405</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X7" t="n">
-        <v>1210.490515437405</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="Y7" t="n">
-        <v>1210.490515437405</v>
+        <v>595.3769080672175</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1587.244713637749</v>
+        <v>888.013114123569</v>
       </c>
       <c r="C8" t="n">
-        <v>1587.244713637749</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D8" t="n">
-        <v>1292.35217653412</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E8" t="n">
-        <v>866.3752366819779</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F8" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>475.942330131692</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>475.942330131692</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N8" t="n">
-        <v>932.7282368344229</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O8" t="n">
-        <v>1389.514143537154</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P8" t="n">
         <v>1389.514143537154</v>
@@ -4835,19 +4837,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W8" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X8" t="n">
-        <v>1587.244713637749</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y8" t="n">
-        <v>1587.244713637749</v>
+        <v>1307.861478415099</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>44.35863542273854</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K9" t="n">
-        <v>44.35863542273854</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L9" t="n">
-        <v>501.1445421254694</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M9" t="n">
-        <v>501.1445421254694</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N9" t="n">
-        <v>501.1445421254694</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O9" t="n">
-        <v>957.9304488282003</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>203.1689621665946</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C10" t="n">
-        <v>203.1689621665946</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D10" t="n">
-        <v>203.1689621665946</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E10" t="n">
-        <v>203.1689621665946</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F10" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>76.20565529896515</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1752.163294524301</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1508.823946750201</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.639498250506</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>946.9280308585344</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>672.0756270310475</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X10" t="n">
-        <v>429.5117304768526</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.1689621665946</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1289.667857496978</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C11" t="n">
-        <v>1289.667857496978</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D11" t="n">
-        <v>866.3752366819779</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E11" t="n">
-        <v>866.3752366819779</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F11" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L11" t="n">
-        <v>950.4838058662885</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M11" t="n">
-        <v>1407.269712569019</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N11" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O11" t="n">
-        <v>1728.043288159434</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="P11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5072,19 +5074,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U11" t="n">
-        <v>1686.059207196631</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V11" t="n">
-        <v>1686.059207196631</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1289.667857496978</v>
+        <v>1700.718355616419</v>
       </c>
       <c r="X11" t="n">
-        <v>1289.667857496978</v>
+        <v>1288.998356784166</v>
       </c>
       <c r="Y11" t="n">
-        <v>1289.667857496978</v>
+        <v>883.6610867390567</v>
       </c>
     </row>
     <row r="12">
@@ -5100,40 +5102,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K12" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L12" t="n">
-        <v>765.3953884431487</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M12" t="n">
-        <v>765.3953884431487</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N12" t="n">
-        <v>765.3953884431487</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O12" t="n">
-        <v>1222.18129514588</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P12" t="n">
         <v>1388.813716338606</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.7082609526723</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C13" t="n">
-        <v>180.7082609526723</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D13" t="n">
-        <v>180.7082609526723</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E13" t="n">
-        <v>180.7082609526723</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F13" t="n">
-        <v>180.7082609526723</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G13" t="n">
         <v>180.7082609526723</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
         <v>76.20565529896515</v>
@@ -5224,25 +5226,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S13" t="n">
-        <v>1729.702593310379</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1486.363245536279</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U13" t="n">
-        <v>1206.178797036583</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V13" t="n">
-        <v>924.4673296446122</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>649.6149258171253</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X13" t="n">
-        <v>407.0510292629303</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.7082609526723</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="14">
@@ -5252,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>887.1053432625264</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C14" t="n">
-        <v>460.2046132758265</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="D14" t="n">
-        <v>36.91199246082674</v>
+        <v>1590.220555060086</v>
       </c>
       <c r="E14" t="n">
-        <v>36.91199246082674</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
         <v>856.3013579804531</v>
       </c>
       <c r="M14" t="n">
+        <v>856.3013579804531</v>
+      </c>
+      <c r="N14" t="n">
         <v>1313.087264683184</v>
       </c>
-      <c r="N14" t="n">
-        <v>1728.043288159434</v>
-      </c>
       <c r="O14" t="n">
-        <v>1728.043288159434</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P14" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q14" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
@@ -5306,22 +5308,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U14" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W14" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X14" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y14" t="n">
-        <v>1306.953707554057</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="15">
@@ -5337,43 +5339,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K15" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L15" t="n">
-        <v>765.3953884431487</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M15" t="n">
-        <v>932.0278096358747</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O15" t="n">
-        <v>932.0278096358747</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
         <v>1845.599623041337</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.91199246082674</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082674</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
         <v>76.20565529896515</v>
@@ -5461,25 +5463,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1776.072293530599</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1532.732945756499</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U16" t="n">
-        <v>1252.548497256803</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V16" t="n">
-        <v>970.8370298648322</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>695.9846260373453</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X16" t="n">
-        <v>453.4207294831504</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y16" t="n">
-        <v>227.0779611728924</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>608.6939898724443</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="C17" t="n">
-        <v>181.7932598857444</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="D17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>475.942330131692</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M17" t="n">
-        <v>932.7282368344229</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N17" t="n">
-        <v>1389.514143537154</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O17" t="n">
-        <v>1389.514143537154</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P17" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q17" t="n">
         <v>1845.599623041337</v>
@@ -5540,25 +5542,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X17" t="n">
-        <v>1433.879624209084</v>
+        <v>96.35108514986604</v>
       </c>
       <c r="Y17" t="n">
-        <v>1028.542354163974</v>
+        <v>71.80886371735552</v>
       </c>
     </row>
     <row r="18">
@@ -5574,46 +5576,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J18" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>308.6094817404178</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L18" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M18" t="n">
-        <v>932.0278096358747</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N18" t="n">
-        <v>932.0278096358747</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O18" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q18" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R18" t="n">
         <v>1845.599623041337</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>375.0307363920342</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C19" t="n">
-        <v>375.0307363920342</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D19" t="n">
-        <v>375.0307363920342</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E19" t="n">
-        <v>375.0307363920342</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F19" t="n">
-        <v>203.1689621665946</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L19" t="n">
-        <v>320.9309218908219</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M19" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1697.682300439483</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1454.342952665383</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U19" t="n">
-        <v>1174.158504165687</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V19" t="n">
-        <v>892.447036773716</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="W19" t="n">
-        <v>617.5946329462291</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="X19" t="n">
-        <v>375.0307363920342</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="Y19" t="n">
-        <v>375.0307363920342</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1320.668515703089</v>
+        <v>558.2077941504763</v>
       </c>
       <c r="C20" t="n">
-        <v>893.7677857163897</v>
+        <v>558.2077941504763</v>
       </c>
       <c r="D20" t="n">
-        <v>470.47516490139</v>
+        <v>558.2077941504763</v>
       </c>
       <c r="E20" t="n">
-        <v>44.49822504924753</v>
+        <v>558.2077941504763</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>558.2077941504763</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K20" t="n">
-        <v>957.7672188505812</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L20" t="n">
-        <v>1006.023847611597</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M20" t="n">
-        <v>1556.689382596036</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N20" t="n">
-        <v>2107.354917580474</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O20" t="n">
-        <v>2107.354917580474</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2219.797360353574</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1998.871789398207</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U20" t="n">
-        <v>1740.51687999462</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V20" t="n">
-        <v>1740.51687999462</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W20" t="n">
-        <v>1740.51687999462</v>
+        <v>969.927792982729</v>
       </c>
       <c r="X20" t="n">
-        <v>1740.51687999462</v>
+        <v>558.2077941504763</v>
       </c>
       <c r="Y20" t="n">
-        <v>1740.51687999462</v>
+        <v>558.2077941504763</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L21" t="n">
-        <v>205.6899987133984</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M21" t="n">
-        <v>756.3555336978366</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.021068682275</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="O21" t="n">
-        <v>1307.021068682275</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P21" t="n">
-        <v>1307.021068682275</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
-        <v>1771.166545545054</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>884.1145108219148</v>
+        <v>624.6310735731513</v>
       </c>
       <c r="C22" t="n">
-        <v>712.1419477008308</v>
+        <v>452.6585104520673</v>
       </c>
       <c r="D22" t="n">
-        <v>548.8251748276015</v>
+        <v>452.6585104520673</v>
       </c>
       <c r="E22" t="n">
-        <v>382.616968980455</v>
+        <v>286.4503046049208</v>
       </c>
       <c r="F22" t="n">
-        <v>210.7551947550154</v>
+        <v>114.5885303794812</v>
       </c>
       <c r="G22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2054.776204981511</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1811.43685720741</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>1811.43685720741</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V22" t="n">
-        <v>1811.43685720741</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W22" t="n">
-        <v>1543.187144398433</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="X22" t="n">
-        <v>1300.623247844238</v>
+        <v>1041.139810595475</v>
       </c>
       <c r="Y22" t="n">
-        <v>1074.28047953398</v>
+        <v>814.797042285217</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>863.9256988112818</v>
+        <v>1221.415113685031</v>
       </c>
       <c r="C23" t="n">
-        <v>437.0249688245819</v>
+        <v>1169.998286800764</v>
       </c>
       <c r="D23" t="n">
-        <v>437.0249688245819</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="E23" t="n">
-        <v>437.0249688245819</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="F23" t="n">
-        <v>437.0249688245819</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G23" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L23" t="n">
-        <v>595.1637600336857</v>
+        <v>957.767218850581</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N23" t="n">
-        <v>1696.494830002562</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580474</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958193</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335517</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T23" t="n">
-        <v>1899.61838738015</v>
+        <v>1899.618387380149</v>
       </c>
       <c r="U23" t="n">
-        <v>1641.263477976562</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="V23" t="n">
-        <v>1283.774063102812</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="W23" t="n">
-        <v>1283.774063102812</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="X23" t="n">
-        <v>1283.774063102812</v>
+        <v>1641.263477976561</v>
       </c>
       <c r="Y23" t="n">
-        <v>1283.774063102812</v>
+        <v>1641.263477976561</v>
       </c>
     </row>
     <row r="24">
@@ -6048,46 +6050,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I24" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J24" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K24" t="n">
-        <v>51.94486801115937</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L24" t="n">
-        <v>51.94486801115937</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M24" t="n">
-        <v>602.6104029955975</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N24" t="n">
-        <v>1153.275937980036</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O24" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P24" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q24" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>458.7432593109769</v>
       </c>
       <c r="F25" t="n">
         <v>454.3200315065851</v>
@@ -6142,7 +6144,7 @@
         <v>144.2667933089716</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6172,25 +6174,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S25" t="n">
-        <v>2177.872639149549</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T25" t="n">
-        <v>2177.872639149549</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U25" t="n">
-        <v>1897.688190649853</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V25" t="n">
-        <v>1897.688190649853</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.835786822366</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X25" t="n">
-        <v>1380.271890268171</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y25" t="n">
-        <v>1153.929121957913</v>
+        <v>458.7432593109769</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>482.0454433580491</v>
+        <v>1050.364568711263</v>
       </c>
       <c r="C26" t="n">
-        <v>482.0454433580491</v>
+        <v>1050.364568711263</v>
       </c>
       <c r="D26" t="n">
-        <v>377.2634748317415</v>
+        <v>1050.364568711263</v>
       </c>
       <c r="E26" t="n">
-        <v>377.2634748317415</v>
+        <v>624.3876288591201</v>
       </c>
       <c r="F26" t="n">
-        <v>377.2634748317415</v>
+        <v>624.3876288591201</v>
       </c>
       <c r="G26" t="n">
-        <v>377.2634748317415</v>
+        <v>220.0485664485687</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577632</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J26" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L26" t="n">
-        <v>44.49822504924753</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M26" t="n">
-        <v>572.914647509062</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N26" t="n">
-        <v>1123.5801824935</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="O26" t="n">
-        <v>1674.245717477938</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q26" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S26" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T26" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U26" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V26" t="n">
-        <v>1283.774063102812</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="W26" t="n">
-        <v>887.3827134031587</v>
+        <v>1867.421837588625</v>
       </c>
       <c r="X26" t="n">
-        <v>887.3827134031587</v>
+        <v>1455.701838756372</v>
       </c>
       <c r="Y26" t="n">
-        <v>482.0454433580491</v>
+        <v>1050.364568711263</v>
       </c>
     </row>
     <row r="27">
@@ -6285,40 +6287,40 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F27" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J27" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K27" t="n">
-        <v>316.1957143288386</v>
+        <v>595.1637600336854</v>
       </c>
       <c r="L27" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608814</v>
       </c>
       <c r="M27" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N27" t="n">
-        <v>866.8612493132769</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O27" t="n">
-        <v>1417.526784297715</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P27" t="n">
         <v>1853.185855629757</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1027.91077931376</v>
+        <v>1000.608253971443</v>
       </c>
       <c r="C28" t="n">
-        <v>855.9382161926764</v>
+        <v>828.6356908503592</v>
       </c>
       <c r="D28" t="n">
-        <v>692.6214433194471</v>
+        <v>665.3189179771299</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4132374723006</v>
+        <v>499.1107121299834</v>
       </c>
       <c r="F28" t="n">
-        <v>354.551463246861</v>
+        <v>327.2489379045438</v>
       </c>
       <c r="G28" t="n">
-        <v>188.2944935410931</v>
+        <v>160.991968198776</v>
       </c>
       <c r="H28" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6403,31 +6405,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q28" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S28" t="n">
-        <v>2007.737591668685</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.398243894585</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="U28" t="n">
-        <v>1719.271920163571</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="V28" t="n">
-        <v>1719.271920163571</v>
+        <v>1934.533291375449</v>
       </c>
       <c r="W28" t="n">
-        <v>1444.419516336084</v>
+        <v>1659.680887547962</v>
       </c>
       <c r="X28" t="n">
-        <v>1444.419516336084</v>
+        <v>1417.116990993767</v>
       </c>
       <c r="Y28" t="n">
-        <v>1218.076748025826</v>
+        <v>1190.774222683509</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>894.6915758509472</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="C29" t="n">
-        <v>467.7908458642473</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="D29" t="n">
-        <v>44.49822504924753</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="E29" t="n">
-        <v>44.49822504924753</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="F29" t="n">
-        <v>44.49822504924753</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G29" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H29" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J29" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K29" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L29" t="n">
-        <v>455.3583126271592</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M29" t="n">
-        <v>1006.023847611597</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N29" t="n">
-        <v>1556.689382596036</v>
+        <v>549.9383681074142</v>
       </c>
       <c r="O29" t="n">
-        <v>2107.354917580474</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P29" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S29" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T29" t="n">
-        <v>1899.61838738015</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U29" t="n">
-        <v>1641.263477976562</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V29" t="n">
-        <v>1314.539940142477</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W29" t="n">
-        <v>1314.539940142477</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="X29" t="n">
-        <v>1314.539940142477</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="Y29" t="n">
-        <v>1314.539940142477</v>
+        <v>991.7500075300179</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6530,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I30" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J30" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K30" t="n">
-        <v>756.3555336978366</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L30" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.021068682275</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.021068682275</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O30" t="n">
-        <v>1307.021068682275</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P30" t="n">
-        <v>1307.021068682275</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q30" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6595,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>523.5838295354065</v>
+        <v>315.6159039117385</v>
       </c>
       <c r="C31" t="n">
-        <v>351.6112664143225</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="D31" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="E31" t="n">
-        <v>188.2944935410931</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F31" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="G31" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J31" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K31" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792429</v>
       </c>
       <c r="L31" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736637</v>
       </c>
       <c r="M31" t="n">
         <v>1074.392270743914</v>
@@ -6640,31 +6642,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R31" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S31" t="n">
-        <v>2019.404782831079</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T31" t="n">
-        <v>2019.404782831079</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U31" t="n">
-        <v>1739.220334331383</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V31" t="n">
-        <v>1457.508866939412</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W31" t="n">
-        <v>1182.656463111925</v>
+        <v>974.688537488257</v>
       </c>
       <c r="X31" t="n">
-        <v>940.0925665577302</v>
+        <v>732.1246409340621</v>
       </c>
       <c r="Y31" t="n">
-        <v>713.7497982474722</v>
+        <v>505.7818726238041</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>746.7056659857641</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="C32" t="n">
-        <v>746.7056659857641</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D32" t="n">
-        <v>746.7056659857641</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E32" t="n">
-        <v>746.7056659857641</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F32" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422928</v>
       </c>
       <c r="G32" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H32" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577631</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J32" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>44.49822504924753</v>
+        <v>957.767218850581</v>
       </c>
       <c r="L32" t="n">
-        <v>595.1637600336857</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M32" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="N32" t="n">
-        <v>1145.829295018124</v>
+        <v>1556.689382596035</v>
       </c>
       <c r="O32" t="n">
-        <v>1696.494830002562</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T32" t="n">
-        <v>2003.98568150701</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U32" t="n">
-        <v>1968.282650022057</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V32" t="n">
-        <v>1968.282650022057</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="W32" t="n">
-        <v>1571.891300322404</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="X32" t="n">
-        <v>1571.891300322404</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Y32" t="n">
-        <v>1166.554030277294</v>
+        <v>2224.911252462376</v>
       </c>
     </row>
     <row r="33">
@@ -6759,43 +6761,43 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134926</v>
+        <v>390.2758541134925</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864298</v>
+        <v>285.5739203864297</v>
       </c>
       <c r="F33" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693792</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J33" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K33" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L33" t="n">
-        <v>595.1637600336857</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M33" t="n">
-        <v>595.1637600336857</v>
+        <v>866.8612493132766</v>
       </c>
       <c r="N33" t="n">
-        <v>751.8547856608809</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="O33" t="n">
-        <v>1302.520320645319</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="P33" t="n">
-        <v>1853.185855629757</v>
+        <v>1417.526784297715</v>
       </c>
       <c r="Q33" t="n">
         <v>1853.185855629757</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>545.9957668907073</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C34" t="n">
-        <v>374.0232037696233</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D34" t="n">
-        <v>210.706430896394</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E34" t="n">
-        <v>44.49822504924753</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F34" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G34" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H34" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J34" t="n">
         <v>101.9895532734055</v>
@@ -6877,31 +6879,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R34" t="n">
-        <v>2211.951767667245</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S34" t="n">
-        <v>2041.81672018638</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T34" t="n">
-        <v>2041.81672018638</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U34" t="n">
-        <v>1761.632271686684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.920804294713</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W34" t="n">
-        <v>1205.068400467226</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X34" t="n">
-        <v>962.5045039130309</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y34" t="n">
-        <v>736.161735602773</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>174.692738652656</v>
+        <v>502.687717120776</v>
       </c>
       <c r="C35" t="n">
-        <v>174.692738652656</v>
+        <v>502.687717120776</v>
       </c>
       <c r="D35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J35" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>595.1637600336857</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L35" t="n">
-        <v>1145.829295018124</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M35" t="n">
-        <v>1556.689382596036</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N35" t="n">
-        <v>2107.354917580474</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O35" t="n">
-        <v>2107.354917580474</v>
+        <v>2059.098288819457</v>
       </c>
       <c r="P35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q35" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S35" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T35" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U35" t="n">
-        <v>1745.630772103422</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>1388.141357229671</v>
+        <v>1334.256080244559</v>
       </c>
       <c r="W35" t="n">
-        <v>991.7500075300184</v>
+        <v>1334.256080244559</v>
       </c>
       <c r="X35" t="n">
-        <v>580.0300086977657</v>
+        <v>922.5360814123061</v>
       </c>
       <c r="Y35" t="n">
-        <v>174.692738652656</v>
+        <v>922.5360814123061</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7004,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J36" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K36" t="n">
-        <v>201.1892506764427</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L36" t="n">
-        <v>751.8547856608809</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M36" t="n">
-        <v>751.8547856608809</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N36" t="n">
-        <v>751.8547856608809</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="O36" t="n">
-        <v>1302.520320645319</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P36" t="n">
         <v>1853.185855629757</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1127.679347573484</v>
+        <v>1009.274747666399</v>
       </c>
       <c r="C37" t="n">
-        <v>955.7067844524004</v>
+        <v>837.3021845453154</v>
       </c>
       <c r="D37" t="n">
-        <v>792.3900115791711</v>
+        <v>673.9854116720861</v>
       </c>
       <c r="E37" t="n">
-        <v>626.1818057320246</v>
+        <v>507.7772058249396</v>
       </c>
       <c r="F37" t="n">
-        <v>454.3200315065851</v>
+        <v>335.9154315995</v>
       </c>
       <c r="G37" t="n">
-        <v>288.0630618008172</v>
+        <v>169.6584618937322</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089716</v>
+        <v>144.2667933089715</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K37" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L37" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
         <v>1074.392270743915</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R37" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T37" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U37" t="n">
-        <v>1825.899551987779</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V37" t="n">
-        <v>1544.188084595808</v>
+        <v>1943.199785070405</v>
       </c>
       <c r="W37" t="n">
-        <v>1544.188084595808</v>
+        <v>1668.347381242918</v>
       </c>
       <c r="X37" t="n">
-        <v>1544.188084595808</v>
+        <v>1425.783484688723</v>
       </c>
       <c r="Y37" t="n">
-        <v>1317.84531628555</v>
+        <v>1199.440716378465</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>988.0056192934842</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="C38" t="n">
-        <v>988.0056192934842</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="D38" t="n">
-        <v>746.7056659857641</v>
+        <v>1299.938409122541</v>
       </c>
       <c r="E38" t="n">
-        <v>746.7056659857641</v>
+        <v>873.9614692703988</v>
       </c>
       <c r="F38" t="n">
-        <v>746.7056659857641</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G38" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J38" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L38" t="n">
-        <v>44.49822504924753</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="M38" t="n">
-        <v>595.1637600336857</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N38" t="n">
-        <v>1145.829295018124</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O38" t="n">
-        <v>1696.494830002562</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P38" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580474</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S38" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.911252462377</v>
+        <v>2119.622379637194</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.911252462377</v>
+        <v>2119.622379637194</v>
       </c>
       <c r="V38" t="n">
-        <v>2224.911252462377</v>
+        <v>2119.622379637194</v>
       </c>
       <c r="W38" t="n">
-        <v>2224.911252462377</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="X38" t="n">
-        <v>1813.191253630124</v>
+        <v>1723.231029937541</v>
       </c>
       <c r="Y38" t="n">
-        <v>1407.853983585014</v>
+        <v>1723.231029937541</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7241,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J39" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K39" t="n">
-        <v>316.1957143288386</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="L39" t="n">
-        <v>316.1957143288386</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M39" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="N39" t="n">
-        <v>838.3748437825398</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="O39" t="n">
-        <v>1389.040378766978</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P39" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>717.8575411161469</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C40" t="n">
-        <v>545.8849779950629</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D40" t="n">
-        <v>382.5682051218336</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E40" t="n">
-        <v>216.3599992746871</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F40" t="n">
-        <v>44.49822504924753</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G40" t="n">
-        <v>44.49822504924753</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H40" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J40" t="n">
         <v>101.9895532734055</v>
@@ -7354,28 +7356,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R40" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S40" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T40" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U40" t="n">
-        <v>1933.494045912124</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V40" t="n">
-        <v>1651.782578520152</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W40" t="n">
-        <v>1376.930174692665</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="X40" t="n">
-        <v>1134.366278138471</v>
+        <v>1388.162932743222</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.0235098282126</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1399.725618125737</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C41" t="n">
-        <v>972.8248881390371</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D41" t="n">
-        <v>972.8248881390371</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E41" t="n">
-        <v>546.8479482868946</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F41" t="n">
-        <v>546.8479482868946</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G41" t="n">
-        <v>142.5088858763432</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H41" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>957.7672188505812</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L41" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M41" t="n">
-        <v>1508.432753835019</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N41" t="n">
-        <v>1508.432753835019</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="O41" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P41" t="n">
-        <v>1651.269438076291</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q41" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U41" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="V41" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="W41" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="X41" t="n">
-        <v>2224.911252462377</v>
+        <v>2200.537933061748</v>
       </c>
       <c r="Y41" t="n">
-        <v>1819.573982417267</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7478,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.928090069334</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693795</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J42" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K42" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L42" t="n">
-        <v>1417.526784297715</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M42" t="n">
-        <v>1417.526784297715</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.166545545054</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q42" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R42" t="n">
         <v>1853.185855629757</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1127.679347573484</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C43" t="n">
-        <v>955.7067844524004</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D43" t="n">
-        <v>792.3900115791711</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E43" t="n">
-        <v>626.1818057320246</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F43" t="n">
-        <v>454.3200315065851</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G43" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H43" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924753</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J43" t="n">
         <v>101.9895532734055</v>
@@ -7588,31 +7590,31 @@
         <v>2097.911122221614</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S43" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T43" t="n">
-        <v>1934.53329137545</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U43" t="n">
-        <v>1934.53329137545</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="V43" t="n">
-        <v>1934.53329137545</v>
+        <v>1818.03954822592</v>
       </c>
       <c r="W43" t="n">
-        <v>1786.751981150003</v>
+        <v>1543.187144398433</v>
       </c>
       <c r="X43" t="n">
-        <v>1544.188084595808</v>
+        <v>1300.623247844238</v>
       </c>
       <c r="Y43" t="n">
-        <v>1317.84531628555</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>739.1194333973433</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="C44" t="n">
-        <v>739.1194333973433</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="D44" t="n">
-        <v>739.1194333973433</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="E44" t="n">
-        <v>739.1194333973433</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="F44" t="n">
-        <v>739.1194333973433</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G44" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J44" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="L44" t="n">
-        <v>399.5154512777223</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="N44" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="O44" t="n">
-        <v>856.3013579804531</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P44" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q44" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R44" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>2120.543958335516</v>
       </c>
       <c r="T44" t="n">
-        <v>1624.67405208597</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U44" t="n">
-        <v>1624.67405208597</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V44" t="n">
-        <v>1624.67405208597</v>
+        <v>1283.774063102811</v>
       </c>
       <c r="W44" t="n">
-        <v>1624.67405208597</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="X44" t="n">
-        <v>1212.954053253717</v>
+        <v>887.3827134031583</v>
       </c>
       <c r="Y44" t="n">
-        <v>807.6167832086077</v>
+        <v>781.6025372422929</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C45" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E45" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>184.3418574809132</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H45" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J45" t="n">
-        <v>36.9119924608267</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="K45" t="n">
-        <v>393.2225928484409</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="L45" t="n">
-        <v>393.2225928484409</v>
+        <v>602.6104029955974</v>
       </c>
       <c r="M45" t="n">
-        <v>393.2225928484409</v>
+        <v>602.6104029955974</v>
       </c>
       <c r="N45" t="n">
-        <v>393.2225928484409</v>
+        <v>602.6104029955974</v>
       </c>
       <c r="O45" t="n">
-        <v>850.0084995511718</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P45" t="n">
-        <v>1306.794406253903</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956634</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R45" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S45" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V45" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.093114985063</v>
+        <v>1003.942702994191</v>
       </c>
       <c r="C46" t="n">
-        <v>948.1205518639796</v>
+        <v>831.9701398731067</v>
       </c>
       <c r="D46" t="n">
-        <v>784.8037789907503</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E46" t="n">
-        <v>618.5955731436038</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F46" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G46" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H46" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J46" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L46" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M46" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N46" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O46" t="n">
-        <v>1573.198076505455</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U46" t="n">
-        <v>1845.599623041337</v>
+        <v>1944.72680396268</v>
       </c>
       <c r="V46" t="n">
-        <v>1845.599623041337</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="W46" t="n">
-        <v>1779.165748561582</v>
+        <v>1663.015336570709</v>
       </c>
       <c r="X46" t="n">
-        <v>1536.601852007387</v>
+        <v>1420.451440016514</v>
       </c>
       <c r="Y46" t="n">
-        <v>1310.259083697129</v>
+        <v>1194.108671706256</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7985,19 +7987,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>457.1346235160602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>361.589074527822</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
@@ -8073,10 +8075,10 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>191.0626152513283</v>
+        <v>183.5407536736399</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8152,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8216,10 +8218,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>478.5220861203824</v>
+        <v>360.4858157331554</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
         <v>498.831168659766</v>
@@ -8228,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8294,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>465.1567191589066</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O6" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>191.0626152513281</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8371,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8392,7 +8394,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>481.7770299789515</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N8" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>114.7742293394935</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>190.7148107956833</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>374.1586769883665</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8611,7 +8613,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M11" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>361.2933355520367</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>114.0667271187383</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,10 +8771,10 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>190.8306636765795</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8781,10 +8783,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>190.0864181671782</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
         <v>484.1469440493127</v>
@@ -8848,7 +8850,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8927,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>456.4271212953049</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>114.7742293394935</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9005,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>483.9149924745637</v>
+        <v>465.2725720398028</v>
       </c>
       <c r="M15" t="n">
-        <v>191.4123574746775</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
         <v>23.67291939414415</v>
@@ -9085,7 +9087,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
@@ -9164,25 +9166,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>115.5109099618853</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O17" t="n">
-        <v>37.3909593560241</v>
+        <v>113.8823246645311</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>191.4123574746775</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385629</v>
       </c>
       <c r="O18" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9319,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>400.5044494188121</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9340,7 +9342,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
-        <v>591.9924139104035</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L20" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>360.1383873221887</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,31 +9479,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3350601123617</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>191.4874666845721</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>300.4545145390012</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298235</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>181.3705437721217</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O24" t="n">
-        <v>178.4700015426657</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M26" t="n">
-        <v>571.1852249800525</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N26" t="n">
-        <v>593.5074359500402</v>
+        <v>593.50743595004</v>
       </c>
       <c r="O26" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489273</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740234</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279221</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378161</v>
       </c>
       <c r="P27" t="n">
-        <v>461.8305092169925</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10051,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>453.322231905261</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>593.5074359500402</v>
+        <v>181.5591018660331</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P29" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>459.4832504061476</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>179.6167914733353</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q30" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10288,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104032</v>
       </c>
       <c r="L32" t="n">
-        <v>594.539855548217</v>
+        <v>594.5398555482168</v>
       </c>
       <c r="M32" t="n">
-        <v>593.6590760150259</v>
+        <v>86.17533235500345</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716183</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P32" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10425,28 +10427,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279219</v>
       </c>
       <c r="N33" t="n">
-        <v>179.6167914733348</v>
+        <v>577.5708413291355</v>
       </c>
       <c r="O33" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>462.8067063011428</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>452.4414523720698</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500402</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>205.0632038737858</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,25 +10664,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>180.6729970931265</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>578.7428998298237</v>
+        <v>462.5747547263938</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291356</v>
       </c>
       <c r="O36" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10744,7 +10746,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L38" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>593.6187724716183</v>
+        <v>181.6704383876112</v>
       </c>
       <c r="P38" t="n">
-        <v>452.5855512828693</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10899,28 +10901,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931269</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M39" t="n">
-        <v>550.5504466271776</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378163</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039387</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11060,28 +11062,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104035</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>205.799884496177</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150259</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O41" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,22 +11138,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489275</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298237</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>378.5549082613589</v>
+        <v>179.6167914733354</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11160,7 +11162,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11233,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>315.9153581548565</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,13 +11299,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104033</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>182.59152146421</v>
       </c>
       <c r="M44" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11312,7 +11314,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>457.4303624918456</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11370,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>382.3089311945598</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,16 +11390,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>484.5717954825564</v>
+        <v>261.3177895070126</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q45" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11470,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>297.533877966958</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039387</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.2596215283863</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>78.78298826849448</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -22598,22 +22600,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22707,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>34.30926288578769</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,22 +22758,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22784,7 +22786,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -22799,10 +22801,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>196.4861123455685</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22838,16 +22840,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>69.27803604990496</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -22939,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>66.09136778611504</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22948,19 +22950,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -22996,13 +22998,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>104.5324659689204</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>127.1160828742571</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -23075,7 +23077,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23084,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>276.5259330086136</v>
       </c>
     </row>
     <row r="9">
@@ -23176,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,19 +23229,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>75.93173177419139</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23312,19 +23314,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>97.8263486232928</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>248.9949814519883</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>53.69563757240839</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>166.2344173054113</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23546,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>86.74075625806418</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -23561,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23701,19 +23703,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>99.60164079042598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>275.6272398561813</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -23750,7 +23752,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>376.9870981264731</v>
       </c>
     </row>
     <row r="18">
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23938,25 +23940,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>21.99554763022101</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>115.121631113674</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>179.1025228543983</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.26086799787677</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24029,10 +24031,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>87.69462746924223</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24175,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>6.536664108324715</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>371.7290640714078</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24218,13 +24220,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>341.1317927335339</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24263,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>162.2770323843603</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>165.7641609568373</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,19 +24448,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>315.3255457658053</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>155.642759299341</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>125.8003826660208</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>232.7075435209953</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>212.826944407646</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>30.45821826926874</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>71.98949189919226</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>11.55051925077029</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>255.4058996719153</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,22 +24970,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.4253591394485</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>33.73833723251827</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>290.1671261394754</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25172,7 +25174,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>49.97719697033006</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>117.2205539080141</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>97.36294473060235</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>180.1727408322068</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>217.8039523344741</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -25451,13 +25453,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8814937157041</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.46490033406</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>232.4070430658443</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>231.64177410293</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25694,7 +25696,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25843,10 +25845,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>116.9973198203193</v>
       </c>
       <c r="W43" t="n">
-        <v>125.8003826660198</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.837504335463</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>296.5615229454019</v>
       </c>
     </row>
     <row r="45">
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>122.4992781335007</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>444061.4447821185</v>
+        <v>444061.4447821186</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>444061.4447821187</v>
+        <v>444061.4447821186</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444061.4447821187</v>
+        <v>444061.4447821185</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>500374.179592921</v>
+        <v>444061.4447821186</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>500374.1795929211</v>
+        <v>500374.179592921</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500374.1795929212</v>
+        <v>500374.179592921</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500374.1795929211</v>
+        <v>500374.179592921</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500374.1795929212</v>
+        <v>500374.179592921</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500374.1795929212</v>
+        <v>500374.179592921</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>444061.4447821187</v>
+        <v>500374.179592921</v>
       </c>
     </row>
   </sheetData>
@@ -26329,19 +26331,19 @@
         <v>112762.0272804593</v>
       </c>
       <c r="H2" t="n">
+        <v>112762.0272804593</v>
+      </c>
+      <c r="I2" t="n">
         <v>127059.1436307371</v>
-      </c>
-      <c r="I2" t="n">
-        <v>127059.143630737</v>
       </c>
       <c r="J2" t="n">
         <v>127059.143630737</v>
       </c>
       <c r="K2" t="n">
-        <v>127059.143630737</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="L2" t="n">
-        <v>127059.143630737</v>
+        <v>127059.1436307371</v>
       </c>
       <c r="M2" t="n">
         <v>127059.1436307371</v>
@@ -26353,7 +26355,7 @@
         <v>127059.143630737</v>
       </c>
       <c r="P2" t="n">
-        <v>112762.0272804593</v>
+        <v>127059.143630737</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>25216.73195181803</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31000.78171447198</v>
+        <v>31000.78171447197</v>
       </c>
       <c r="C4" t="n">
         <v>31000.78171447197</v>
@@ -26427,25 +26429,25 @@
         <v>31000.78171447197</v>
       </c>
       <c r="F4" t="n">
-        <v>31000.78171447197</v>
+        <v>31000.78171447198</v>
       </c>
       <c r="G4" t="n">
         <v>31000.78171447197</v>
       </c>
       <c r="H4" t="n">
-        <v>34949.1061971525</v>
+        <v>31000.78171447197</v>
       </c>
       <c r="I4" t="n">
         <v>34949.10619715249</v>
       </c>
       <c r="J4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="K4" t="n">
         <v>34949.1061971525</v>
       </c>
       <c r="L4" t="n">
-        <v>34949.10619715251</v>
+        <v>34949.10619715248</v>
       </c>
       <c r="M4" t="n">
         <v>34949.1061971525</v>
@@ -26454,10 +26456,10 @@
         <v>34949.1061971525</v>
       </c>
       <c r="O4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715249</v>
       </c>
       <c r="P4" t="n">
-        <v>31000.78171447197</v>
+        <v>34949.10619715249</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742812</v>
+        <v>33818.65103742811</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022832</v>
+        <v>33818.65103742811</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-134545.1893223615</v>
       </c>
       <c r="C6" t="n">
-        <v>20080.53129575899</v>
+        <v>20080.53129575898</v>
       </c>
       <c r="D6" t="n">
-        <v>20080.53129575902</v>
+        <v>20080.53129575898</v>
       </c>
       <c r="E6" t="n">
-        <v>53708.13129575903</v>
+        <v>53708.13129575898</v>
       </c>
       <c r="F6" t="n">
-        <v>53708.13129575901</v>
+        <v>53708.13129575898</v>
       </c>
       <c r="G6" t="n">
-        <v>53708.13129575896</v>
+        <v>53708.13129575898</v>
       </c>
       <c r="H6" t="n">
-        <v>32705.96354054112</v>
+        <v>53708.13129575898</v>
       </c>
       <c r="I6" t="n">
-        <v>58291.38639615643</v>
+        <v>33074.65444433846</v>
       </c>
       <c r="J6" t="n">
         <v>-62431.13054660047</v>
       </c>
       <c r="K6" t="n">
-        <v>58291.38639615642</v>
+        <v>58291.38639615646</v>
       </c>
       <c r="L6" t="n">
-        <v>58291.38639615641</v>
+        <v>58291.38639615648</v>
       </c>
       <c r="M6" t="n">
-        <v>58291.38639615645</v>
+        <v>58291.38639615646</v>
       </c>
       <c r="N6" t="n">
-        <v>58291.38639615642</v>
+        <v>58291.3863961564</v>
       </c>
       <c r="O6" t="n">
-        <v>58291.38639615642</v>
+        <v>58291.38639615644</v>
       </c>
       <c r="P6" t="n">
-        <v>53708.13129575902</v>
+        <v>58291.38639615643</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="K4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O4" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>94.82790735525975</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.3155769623498</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34872,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>442.7574853255731</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35112,7 +35114,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.31557696235</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>352.3878357835378</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>419.1474984608589</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M15" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L17" t="n">
-        <v>77.19886752926237</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>377.9290095273263</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36060,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L20" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
-        <v>162.8199733981322</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395694</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O24" t="n">
-        <v>155.2981118204435</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M26" t="n">
-        <v>533.7539620806207</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>158.2737632597939</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P27" t="n">
-        <v>440.0596680121639</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36771,7 +36773,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="O29" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>437.0840165728143</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q30" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="M32" t="n">
-        <v>556.2278131155941</v>
+        <v>48.74406945557163</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155941</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="P32" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="N33" t="n">
-        <v>158.2737632597932</v>
+        <v>556.2278131155939</v>
       </c>
       <c r="O33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>415.010189472638</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N35" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>556.2278131155941</v>
+        <v>440.0596680121643</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>556.2278131155941</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="P38" t="n">
-        <v>415.010189472638</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M39" t="n">
-        <v>527.4536661148496</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>167.4878420635541</v>
       </c>
       <c r="M41" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O41" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L42" t="n">
-        <v>556.2278131155941</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>357.2118800478172</v>
+        <v>158.2737632597938</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37953,10 +37955,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>293.53455749687</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="M44" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38032,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>419.8550006816143</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38090,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>359.9096973612265</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>461.3999057603342</v>
+        <v>238.1458997847904</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603342</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38190,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>275.1530773089715</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150551.498763821</v>
+        <v>144891.7041873798</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19282386.12654756</v>
+        <v>19282386.12654757</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9802884.450357869</v>
+        <v>9802884.450357866</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5434376.351891369</v>
+        <v>5434376.35189137</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>342.0899517239993</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>140.1121731982141</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>103.6549143897922</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
         <v>92.70937201392488</v>
@@ -828,16 +828,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>108.0490429211395</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>206.5669286245273</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>333.5152615739078</v>
       </c>
       <c r="H5" t="n">
-        <v>98.40358239513702</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.1729412388299</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1062,16 +1062,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>19.20130855525881</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>200.8797920271262</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>124.7579643360449</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>76.09033217321412</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>143.4324547506683</v>
+        <v>71.77132399094423</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>76.09033217321412</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>252.8252773014384</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>168.0971850322584</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>111.0380983841774</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>164.5404183120838</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>23.9629129701178</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
@@ -1909,10 +1909,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>24.29679921818541</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -2019,7 +2019,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>50.59258782007182</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.9577095134814</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>139.1974901960474</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>221.1931489320475</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621563042</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>76.89977253946795</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>50.90265861542504</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>218.7163152458132</v>
@@ -2377,16 +2377,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>242.5938981288117</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>96.44420510686369</v>
       </c>
       <c r="F25" t="n">
-        <v>4.378995526347924</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>139.2469354413645</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>60.92266174725118</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399242</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>16.55792314090636</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>208.0459955848478</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
@@ -2857,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>218.3120501337247</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>98.26334559068088</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>42.31046081014942</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>167.2258230149176</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -3040,16 +3040,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>108.4708178825969</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>98.2633455906813</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>26.55717283999597</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>303.937323754683</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3429,19 +3429,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>69.37788311233427</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>25.13775189891307</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3489,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0.9123629113390416</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>211.3302080955066</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>106.7228969293695</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.61444029309537</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>398.62384358175</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>24.12958620662185</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3909,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.3706512895028</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.8970328977321</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>228.4059839630747</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.7223743992567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.18432701099631</v>
+        <v>148.0569220260806</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4197,7 +4197,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>808.4343380947867</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C2" t="n">
-        <v>808.4343380947867</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="D2" t="n">
-        <v>808.4343380947867</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="E2" t="n">
-        <v>382.4573982426442</v>
+        <v>1007.902684356942</v>
       </c>
       <c r="F2" t="n">
-        <v>36.91199246082673</v>
+        <v>582.7785025463419</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082673</v>
+        <v>178.4394401357905</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082673</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082673</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M2" t="n">
-        <v>493.6978991635576</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N2" t="n">
-        <v>950.4838058662883</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
-        <v>1407.269712569019</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4360,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1228.282702386317</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>1228.282702386317</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.282702386317</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C3" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K3" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="L3" t="n">
+        <v>316.0561247023296</v>
+      </c>
+      <c r="M3" t="n">
         <v>772.8420314050604</v>
       </c>
-      <c r="L3" t="n">
-        <v>1229.627938107791</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1229.627938107791</v>
-      </c>
       <c r="N3" t="n">
-        <v>1229.627938107791</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O3" t="n">
-        <v>1686.413844810522</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P3" t="n">
-        <v>1686.413844810522</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4439,7 +4439,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U3" t="n">
         <v>1437.627243819906</v>
@@ -4448,13 +4448,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>575.3459868360169</v>
+        <v>704.55571511241</v>
       </c>
       <c r="C4" t="n">
-        <v>575.3459868360169</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D4" t="n">
-        <v>412.0292139627876</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E4" t="n">
-        <v>245.8210081156411</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F4" t="n">
-        <v>245.8210081156411</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G4" t="n">
-        <v>245.8210081156411</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>239.8047369801043</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>594.4940582745251</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N4" t="n">
-        <v>1444.297549031529</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O4" t="n">
-        <v>1799.725677711293</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T4" t="n">
-        <v>1602.260275267236</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U4" t="n">
-        <v>1322.075826767541</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V4" t="n">
-        <v>1040.36435937557</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="W4" t="n">
-        <v>765.5119555480826</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="X4" t="n">
-        <v>765.5119555480826</v>
+        <v>1103.375147081574</v>
       </c>
       <c r="Y4" t="n">
-        <v>765.5119555480826</v>
+        <v>894.7216838244756</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1449.208273341683</v>
+        <v>373.7960950607336</v>
       </c>
       <c r="C5" t="n">
-        <v>1022.307543354984</v>
+        <v>373.7960950607336</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.307543354984</v>
+        <v>373.7960950607336</v>
       </c>
       <c r="E5" t="n">
-        <v>596.3306035028412</v>
+        <v>373.7960950607336</v>
       </c>
       <c r="F5" t="n">
-        <v>171.2064216922414</v>
+        <v>373.7960950607336</v>
       </c>
       <c r="G5" t="n">
-        <v>171.2064216922414</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K5" t="n">
-        <v>358.3859952497894</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L5" t="n">
-        <v>358.3859952497894</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M5" t="n">
-        <v>815.1719019525202</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N5" t="n">
-        <v>815.1719019525202</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525202</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
         <v>1271.957808655251</v>
@@ -4600,19 +4600,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W5" t="n">
-        <v>1449.208273341683</v>
+        <v>1190.853363938096</v>
       </c>
       <c r="X5" t="n">
-        <v>1449.208273341683</v>
+        <v>779.1333651058433</v>
       </c>
       <c r="Y5" t="n">
-        <v>1449.208273341683</v>
+        <v>373.7960950607336</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L6" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="N6" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O6" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P6" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q6" t="n">
         <v>1845.599623041337</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>471.969896714864</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C7" t="n">
-        <v>299.9973335937801</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D7" t="n">
-        <v>136.6805607205508</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E7" t="n">
-        <v>136.6805607205508</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F7" t="n">
-        <v>136.6805607205508</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G7" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H7" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K7" t="n">
         <v>76.20565529896515</v>
@@ -4749,28 +4749,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T7" t="n">
-        <v>1432.125227786371</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.940779286676</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V7" t="n">
-        <v>870.2293118947046</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W7" t="n">
-        <v>595.3769080672175</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X7" t="n">
-        <v>595.3769080672175</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y7" t="n">
-        <v>595.3769080672175</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.013114123569</v>
+        <v>960.9818726372727</v>
       </c>
       <c r="C8" t="n">
-        <v>888.013114123569</v>
+        <v>960.9818726372727</v>
       </c>
       <c r="D8" t="n">
-        <v>888.013114123569</v>
+        <v>537.6892518222729</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0361742714265</v>
+        <v>537.6892518222729</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082673</v>
+        <v>537.6892518222729</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K8" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L8" t="n">
-        <v>399.5154512777223</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M8" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N8" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O8" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4834,22 +4834,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="X8" t="n">
-        <v>1433.879624209084</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="Y8" t="n">
-        <v>1307.861478415099</v>
+        <v>960.9818726372727</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K9" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L9" t="n">
-        <v>475.2419029331443</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331443</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N9" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O9" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4913,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4922,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1020.32454672534</v>
+        <v>285.7434769689957</v>
       </c>
       <c r="C10" t="n">
-        <v>848.3519836042556</v>
+        <v>113.7709138479117</v>
       </c>
       <c r="D10" t="n">
-        <v>685.0352107310263</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E10" t="n">
-        <v>518.8270048838798</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F10" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K10" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W10" t="n">
-        <v>1679.397180301858</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.833283747663</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y10" t="n">
-        <v>1210.490515437405</v>
+        <v>475.9094456810614</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>463.8127224475267</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="C11" t="n">
-        <v>36.91199246082673</v>
+        <v>1346.202606195097</v>
       </c>
       <c r="D11" t="n">
-        <v>36.91199246082673</v>
+        <v>922.9099853800977</v>
       </c>
       <c r="E11" t="n">
-        <v>36.91199246082673</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
@@ -5047,22 +5047,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L11" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M11" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N11" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O11" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5080,13 +5080,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W11" t="n">
-        <v>1700.718355616419</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="X11" t="n">
-        <v>1288.998356784166</v>
+        <v>1773.103336181797</v>
       </c>
       <c r="Y11" t="n">
-        <v>883.6610867390567</v>
+        <v>1773.103336181797</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C12" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J12" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K12" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L12" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M12" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N12" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O12" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P12" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5150,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5159,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1020.32454672534</v>
+        <v>285.7434769689957</v>
       </c>
       <c r="C13" t="n">
-        <v>848.3519836042556</v>
+        <v>113.7709138479117</v>
       </c>
       <c r="D13" t="n">
-        <v>685.0352107310263</v>
+        <v>113.7709138479117</v>
       </c>
       <c r="E13" t="n">
-        <v>518.8270048838798</v>
+        <v>113.7709138479117</v>
       </c>
       <c r="F13" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G13" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L13" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M13" t="n">
-        <v>822.0807715636367</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N13" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O13" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P13" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>993.3257460627433</v>
       </c>
       <c r="W13" t="n">
-        <v>1679.397180301858</v>
+        <v>718.4733422352563</v>
       </c>
       <c r="X13" t="n">
-        <v>1436.833283747663</v>
+        <v>475.9094456810614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1210.490515437405</v>
+        <v>475.9094456810614</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C14" t="n">
-        <v>1845.599623041337</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.220555060086</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E14" t="n">
-        <v>1164.243615207943</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F14" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L14" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M14" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N14" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O14" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P14" t="n">
-        <v>1389.514143537154</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q14" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R14" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1482.877419510889</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>1313.082283114669</v>
       </c>
     </row>
     <row r="15">
@@ -5339,46 +5339,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F15" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H15" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L15" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M15" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N15" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="O15" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511716</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1020.32454672534</v>
+        <v>492.9060251449033</v>
       </c>
       <c r="C16" t="n">
-        <v>848.3519836042556</v>
+        <v>320.9334620238193</v>
       </c>
       <c r="D16" t="n">
-        <v>685.0352107310263</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="E16" t="n">
-        <v>518.8270048838798</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F16" t="n">
-        <v>346.9652306584402</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G16" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K16" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L16" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M16" t="n">
         <v>822.0807715636367</v>
@@ -5460,28 +5460,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T16" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U16" t="n">
-        <v>1845.599623041337</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V16" t="n">
-        <v>1845.599623041337</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W16" t="n">
-        <v>1679.397180301858</v>
+        <v>961.8126900093562</v>
       </c>
       <c r="X16" t="n">
-        <v>1436.833283747663</v>
+        <v>719.2487934551613</v>
       </c>
       <c r="Y16" t="n">
-        <v>1210.490515437405</v>
+        <v>492.9060251449033</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>71.80886371735552</v>
+        <v>465.4560174674567</v>
       </c>
       <c r="C17" t="n">
-        <v>71.80886371735552</v>
+        <v>465.4560174674567</v>
       </c>
       <c r="D17" t="n">
-        <v>71.80886371735552</v>
+        <v>465.4560174674567</v>
       </c>
       <c r="E17" t="n">
-        <v>71.80886371735552</v>
+        <v>465.4560174674567</v>
       </c>
       <c r="F17" t="n">
-        <v>71.80886371735552</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G17" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H17" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M17" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N17" t="n">
-        <v>1313.087264683184</v>
+        <v>814.4714747539724</v>
       </c>
       <c r="O17" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U17" t="n">
-        <v>1261.951848555522</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V17" t="n">
-        <v>904.4624336817719</v>
+        <v>1267.18463721222</v>
       </c>
       <c r="W17" t="n">
-        <v>508.0710839821188</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="X17" t="n">
-        <v>96.35108514986604</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="Y17" t="n">
-        <v>71.80886371735552</v>
+        <v>465.4560174674567</v>
       </c>
     </row>
     <row r="18">
@@ -5576,43 +5576,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>772.8420314050604</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M18" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N18" t="n">
-        <v>850.0084995511719</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O18" t="n">
-        <v>1306.794406253903</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P18" t="n">
-        <v>1763.580312956633</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q18" t="n">
         <v>1763.580312956633</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1020.32454672534</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="C19" t="n">
-        <v>848.3519836042556</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="D19" t="n">
-        <v>685.0352107310263</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E19" t="n">
-        <v>518.8270048838798</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F19" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G19" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>822.0807715636367</v>
+        <v>985.6798532447758</v>
       </c>
       <c r="N19" t="n">
-        <v>1199.572282439673</v>
+        <v>1363.171364120812</v>
       </c>
       <c r="O19" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P19" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5703,22 +5703,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1602.260275267236</v>
+        <v>1794.495998980658</v>
       </c>
       <c r="U19" t="n">
-        <v>1602.260275267236</v>
+        <v>1514.311550480963</v>
       </c>
       <c r="V19" t="n">
-        <v>1320.548807875265</v>
+        <v>1232.600083088991</v>
       </c>
       <c r="W19" t="n">
-        <v>1320.548807875265</v>
+        <v>957.7476792615043</v>
       </c>
       <c r="X19" t="n">
-        <v>1320.548807875265</v>
+        <v>957.7476792615043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1210.490515437405</v>
+        <v>731.4049109512464</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>558.2077941504763</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="C20" t="n">
-        <v>558.2077941504763</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="D20" t="n">
-        <v>558.2077941504763</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E20" t="n">
-        <v>558.2077941504763</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F20" t="n">
-        <v>558.2077941504763</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G20" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L20" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M20" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N20" t="n">
-        <v>493.6978991635576</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O20" t="n">
-        <v>950.4838058662883</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P20" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
         <v>1728.043288159434</v>
@@ -5788,16 +5788,16 @@
         <v>1366.319142682382</v>
       </c>
       <c r="V20" t="n">
-        <v>1366.319142682382</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="W20" t="n">
-        <v>969.927792982729</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="X20" t="n">
-        <v>558.2077941504763</v>
+        <v>1008.829727808632</v>
       </c>
       <c r="Y20" t="n">
-        <v>558.2077941504763</v>
+        <v>603.4924577635221</v>
       </c>
     </row>
     <row r="21">
@@ -5813,46 +5813,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F21" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851714</v>
+        <v>90.28808569851715</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I21" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J21" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L21" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M21" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N21" t="n">
-        <v>765.3953884431487</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O21" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P21" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253902</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>624.6310735731513</v>
+        <v>106.4393219715645</v>
       </c>
       <c r="C22" t="n">
-        <v>452.6585104520673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D22" t="n">
-        <v>452.6585104520673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E22" t="n">
-        <v>286.4503046049208</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F22" t="n">
-        <v>114.5885303794812</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>659.3229750323874</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>1050.508770002638</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
@@ -5940,22 +5940,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U22" t="n">
-        <v>1565.415174541641</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V22" t="n">
-        <v>1283.70370714967</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W22" t="n">
-        <v>1283.70370714967</v>
+        <v>765.5119555480831</v>
       </c>
       <c r="X22" t="n">
-        <v>1041.139810595475</v>
+        <v>522.9480589938881</v>
       </c>
       <c r="Y22" t="n">
-        <v>814.797042285217</v>
+        <v>296.6052906836302</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1221.415113685031</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.998286800764</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="D23" t="n">
         <v>746.7056659857641</v>
@@ -5983,58 +5983,58 @@
         <v>342.3666035752127</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J23" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K23" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L23" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M23" t="n">
-        <v>1218.160237973755</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N23" t="n">
-        <v>1218.160237973755</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O23" t="n">
-        <v>1218.160237973755</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P23" t="n">
-        <v>1768.825772958193</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T23" t="n">
-        <v>1899.618387380149</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U23" t="n">
-        <v>1641.263477976561</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V23" t="n">
-        <v>1641.263477976561</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W23" t="n">
-        <v>1641.263477976561</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="X23" t="n">
-        <v>1641.263477976561</v>
+        <v>991.7500075300184</v>
       </c>
       <c r="Y23" t="n">
-        <v>1641.263477976561</v>
+        <v>746.7056659857641</v>
       </c>
     </row>
     <row r="24">
@@ -6050,46 +6050,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F24" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K24" t="n">
-        <v>595.1637600336854</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L24" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N24" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R24" t="n">
         <v>1853.185855629757</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>458.7432593109769</v>
+        <v>485.7509513926031</v>
       </c>
       <c r="C25" t="n">
-        <v>458.7432593109769</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="D25" t="n">
-        <v>458.7432593109769</v>
+        <v>313.7783882715191</v>
       </c>
       <c r="E25" t="n">
-        <v>458.7432593109769</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J25" t="n">
         <v>101.9895532734055</v>
@@ -6171,28 +6171,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R25" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S25" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.398243894584</v>
+        <v>1981.571904688275</v>
       </c>
       <c r="U25" t="n">
-        <v>1484.213795394888</v>
+        <v>1701.38745618858</v>
       </c>
       <c r="V25" t="n">
-        <v>1202.502328002917</v>
+        <v>1419.675988796609</v>
       </c>
       <c r="W25" t="n">
-        <v>927.6499241754298</v>
+        <v>1144.823584969122</v>
       </c>
       <c r="X25" t="n">
-        <v>685.0860276212348</v>
+        <v>902.2596884149267</v>
       </c>
       <c r="Y25" t="n">
-        <v>458.7432593109769</v>
+        <v>675.9169201046687</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1050.364568711263</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="C26" t="n">
-        <v>1050.364568711263</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="D26" t="n">
-        <v>1050.364568711263</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="E26" t="n">
-        <v>624.3876288591201</v>
+        <v>802.3876566423413</v>
       </c>
       <c r="F26" t="n">
-        <v>624.3876288591201</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="G26" t="n">
-        <v>220.0485664485687</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H26" t="n">
-        <v>79.39509630577631</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I26" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J26" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K26" t="n">
-        <v>957.767218850581</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L26" t="n">
-        <v>1508.432753835019</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M26" t="n">
-        <v>1556.689382596035</v>
+        <v>407.101683866143</v>
       </c>
       <c r="N26" t="n">
-        <v>2107.354917580473</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O26" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P26" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q26" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R26" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S26" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T26" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.911252462376</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V26" t="n">
-        <v>1867.421837588625</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W26" t="n">
-        <v>1867.421837588625</v>
+        <v>1222.236020933871</v>
       </c>
       <c r="X26" t="n">
-        <v>1455.701838756372</v>
+        <v>1222.236020933871</v>
       </c>
       <c r="Y26" t="n">
-        <v>1050.364568711263</v>
+        <v>1222.236020933871</v>
       </c>
     </row>
     <row r="27">
@@ -6287,46 +6287,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D27" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E27" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F27" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G27" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J27" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K27" t="n">
-        <v>595.1637600336854</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L27" t="n">
-        <v>751.8547856608814</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N27" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P27" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q27" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R27" t="n">
         <v>1853.185855629757</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1000.608253971443</v>
+        <v>315.615903911738</v>
       </c>
       <c r="C28" t="n">
-        <v>828.6356908503592</v>
+        <v>143.643340790654</v>
       </c>
       <c r="D28" t="n">
-        <v>665.3189179771299</v>
+        <v>143.643340790654</v>
       </c>
       <c r="E28" t="n">
-        <v>499.1107121299834</v>
+        <v>143.643340790654</v>
       </c>
       <c r="F28" t="n">
-        <v>327.2489379045438</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G28" t="n">
-        <v>160.991968198776</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H28" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I28" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J28" t="n">
         <v>101.9895532734055</v>
@@ -6408,28 +6408,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R28" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S28" t="n">
-        <v>2177.872639149549</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T28" t="n">
-        <v>1934.533291375449</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U28" t="n">
-        <v>1934.533291375449</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V28" t="n">
-        <v>1934.533291375449</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W28" t="n">
-        <v>1659.680887547962</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X28" t="n">
-        <v>1417.116990993767</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y28" t="n">
-        <v>1190.774222683509</v>
+        <v>505.7818726238037</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>991.7500075300179</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="C29" t="n">
-        <v>991.7500075300179</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="D29" t="n">
-        <v>991.7500075300179</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E29" t="n">
-        <v>991.7500075300179</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F29" t="n">
-        <v>781.6025372422929</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G29" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H29" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I29" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J29" t="n">
         <v>407.101683866143</v>
@@ -6475,40 +6475,40 @@
         <v>407.101683866143</v>
       </c>
       <c r="N29" t="n">
-        <v>549.9383681074142</v>
+        <v>549.9383681074144</v>
       </c>
       <c r="O29" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P29" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q29" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R29" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S29" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T29" t="n">
-        <v>2003.985681507009</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U29" t="n">
-        <v>1745.630772103422</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V29" t="n">
-        <v>1388.141357229671</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W29" t="n">
-        <v>991.7500075300179</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X29" t="n">
-        <v>991.7500075300179</v>
+        <v>925.2204004494488</v>
       </c>
       <c r="Y29" t="n">
-        <v>991.7500075300179</v>
+        <v>925.2204004494488</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F30" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G30" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J30" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K30" t="n">
-        <v>44.49822504924752</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L30" t="n">
-        <v>595.1637600336855</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M30" t="n">
-        <v>595.1637600336855</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N30" t="n">
-        <v>751.8547856608812</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="O30" t="n">
-        <v>1302.520320645319</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P30" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q30" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R30" t="n">
         <v>1853.185855629757</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>315.6159039117385</v>
+        <v>597.3273713037102</v>
       </c>
       <c r="C31" t="n">
-        <v>216.3599992746871</v>
+        <v>425.3548081826261</v>
       </c>
       <c r="D31" t="n">
-        <v>216.3599992746871</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E31" t="n">
-        <v>216.3599992746871</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F31" t="n">
-        <v>44.49822504924752</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I31" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J31" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K31" t="n">
-        <v>328.5171544792429</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L31" t="n">
-        <v>683.2064757736637</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M31" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N31" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O31" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P31" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q31" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S31" t="n">
         <v>2054.776204981511</v>
@@ -6654,19 +6654,19 @@
         <v>1811.436857207411</v>
       </c>
       <c r="U31" t="n">
-        <v>1531.252408707715</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V31" t="n">
-        <v>1249.540941315744</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="W31" t="n">
-        <v>974.688537488257</v>
+        <v>1256.400004880229</v>
       </c>
       <c r="X31" t="n">
-        <v>732.1246409340621</v>
+        <v>1013.836108326034</v>
       </c>
       <c r="Y31" t="n">
-        <v>505.7818726238041</v>
+        <v>787.4933400157757</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2224.911252462376</v>
+        <v>1003.334268426084</v>
       </c>
       <c r="C32" t="n">
-        <v>2055.996279720035</v>
+        <v>1003.334268426084</v>
       </c>
       <c r="D32" t="n">
-        <v>1632.703658905035</v>
+        <v>580.0416476110838</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.726719052893</v>
+        <v>154.0647077589414</v>
       </c>
       <c r="F32" t="n">
-        <v>781.6025372422928</v>
+        <v>154.0647077589414</v>
       </c>
       <c r="G32" t="n">
-        <v>377.2634748317415</v>
+        <v>154.0647077589414</v>
       </c>
       <c r="H32" t="n">
-        <v>79.39509630577631</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I32" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J32" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K32" t="n">
-        <v>957.767218850581</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L32" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M32" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N32" t="n">
-        <v>1556.689382596035</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O32" t="n">
-        <v>2107.354917580473</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P32" t="n">
-        <v>2107.354917580473</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q32" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V32" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W32" t="n">
-        <v>2224.911252462376</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X32" t="n">
-        <v>2224.911252462376</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="Y32" t="n">
-        <v>2224.911252462376</v>
+        <v>1423.182632717614</v>
       </c>
     </row>
     <row r="33">
@@ -6761,46 +6761,46 @@
         <v>494.1158125982075</v>
       </c>
       <c r="D33" t="n">
-        <v>390.2758541134925</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E33" t="n">
-        <v>285.5739203864297</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F33" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G33" t="n">
-        <v>97.87431828693792</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H33" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I33" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J33" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K33" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L33" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M33" t="n">
-        <v>866.8612493132766</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N33" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O33" t="n">
-        <v>1417.526784297715</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P33" t="n">
-        <v>1417.526784297715</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q33" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R33" t="n">
         <v>1853.185855629757</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C34" t="n">
-        <v>955.7067844524004</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="D34" t="n">
-        <v>792.3900115791711</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="E34" t="n">
-        <v>626.1818057320246</v>
+        <v>216.3599992746871</v>
       </c>
       <c r="F34" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G34" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H34" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I34" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J34" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K34" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L34" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M34" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N34" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O34" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P34" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R34" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S34" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T34" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U34" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V34" t="n">
-        <v>2061.60438497749</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W34" t="n">
-        <v>1786.751981150003</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X34" t="n">
-        <v>1544.188084595808</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y34" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,58 +6913,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>502.687717120776</v>
+        <v>475.662714570906</v>
       </c>
       <c r="C35" t="n">
-        <v>502.687717120776</v>
+        <v>475.662714570906</v>
       </c>
       <c r="D35" t="n">
-        <v>79.39509630577632</v>
+        <v>475.662714570906</v>
       </c>
       <c r="E35" t="n">
-        <v>79.39509630577632</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="F35" t="n">
-        <v>79.39509630577632</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G35" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H35" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I35" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J35" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K35" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L35" t="n">
-        <v>407.101683866143</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M35" t="n">
-        <v>957.7672188505811</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N35" t="n">
-        <v>1508.432753835019</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O35" t="n">
-        <v>2059.098288819457</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P35" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q35" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R35" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S35" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T35" t="n">
         <v>1899.61838738015</v>
@@ -6973,16 +6973,16 @@
         <v>1641.263477976562</v>
       </c>
       <c r="V35" t="n">
-        <v>1334.256080244559</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W35" t="n">
-        <v>1334.256080244559</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X35" t="n">
-        <v>922.5360814123061</v>
+        <v>475.662714570906</v>
       </c>
       <c r="Y35" t="n">
-        <v>922.5360814123061</v>
+        <v>475.662714570906</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F36" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G36" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H36" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I36" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J36" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K36" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L36" t="n">
-        <v>751.8547856608812</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.520320645319</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N36" t="n">
-        <v>1853.185855629757</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P36" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q36" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R36" t="n">
         <v>1853.185855629757</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1009.274747666399</v>
+        <v>558.1798004659338</v>
       </c>
       <c r="C37" t="n">
-        <v>837.3021845453154</v>
+        <v>386.2072373448498</v>
       </c>
       <c r="D37" t="n">
-        <v>673.9854116720861</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="E37" t="n">
-        <v>507.7772058249396</v>
+        <v>316.1285675344111</v>
       </c>
       <c r="F37" t="n">
-        <v>335.9154315995</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="G37" t="n">
-        <v>169.6584618937322</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="H37" t="n">
-        <v>144.2667933089715</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I37" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J37" t="n">
         <v>101.9895532734055</v>
@@ -7104,43 +7104,43 @@
         <v>683.2064757736634</v>
       </c>
       <c r="M37" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N37" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O37" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P37" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R37" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S37" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T37" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U37" t="n">
-        <v>2224.911252462376</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V37" t="n">
-        <v>1943.199785070405</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W37" t="n">
-        <v>1668.347381242918</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X37" t="n">
-        <v>1425.783484688723</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="Y37" t="n">
-        <v>1199.440716378465</v>
+        <v>748.3457691779995</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1723.231029937541</v>
+        <v>932.2727661446186</v>
       </c>
       <c r="C38" t="n">
-        <v>1723.231029937541</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.938409122541</v>
+        <v>505.3720361579187</v>
       </c>
       <c r="E38" t="n">
-        <v>873.9614692703988</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F38" t="n">
-        <v>448.8372874597989</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H38" t="n">
-        <v>44.49822504924752</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I38" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J38" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K38" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L38" t="n">
-        <v>957.7672188505811</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M38" t="n">
-        <v>957.7672188505811</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N38" t="n">
-        <v>957.7672188505811</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O38" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P38" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q38" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R38" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S38" t="n">
-        <v>2120.543958335516</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T38" t="n">
-        <v>2119.622379637194</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U38" t="n">
-        <v>2119.622379637194</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V38" t="n">
-        <v>2119.622379637194</v>
+        <v>1542.1289725064</v>
       </c>
       <c r="W38" t="n">
-        <v>1723.231029937541</v>
+        <v>1145.737622806746</v>
       </c>
       <c r="X38" t="n">
-        <v>1723.231029937541</v>
+        <v>932.2727661446186</v>
       </c>
       <c r="Y38" t="n">
-        <v>1723.231029937541</v>
+        <v>932.2727661446186</v>
       </c>
     </row>
     <row r="39">
@@ -7241,37 +7241,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F39" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G39" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H39" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I39" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J39" t="n">
-        <v>44.49822504924752</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K39" t="n">
-        <v>201.1892506764432</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="L39" t="n">
-        <v>751.8547856608812</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="M39" t="n">
-        <v>751.8547856608812</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="N39" t="n">
-        <v>751.8547856608812</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O39" t="n">
-        <v>1302.520320645319</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P39" t="n">
-        <v>1853.185855629757</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q39" t="n">
         <v>1853.185855629757</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1127.679347573484</v>
+        <v>315.6159039117389</v>
       </c>
       <c r="C40" t="n">
-        <v>955.7067844524004</v>
+        <v>207.8149979224768</v>
       </c>
       <c r="D40" t="n">
-        <v>792.3900115791711</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="E40" t="n">
-        <v>626.1818057320246</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="F40" t="n">
-        <v>454.3200315065851</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="G40" t="n">
-        <v>288.0630618008172</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H40" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I40" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924814</v>
       </c>
       <c r="J40" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K40" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L40" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M40" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N40" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O40" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P40" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q40" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R40" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S40" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T40" t="n">
-        <v>2224.911252462376</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U40" t="n">
-        <v>1944.72680396268</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V40" t="n">
-        <v>1663.015336570709</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W40" t="n">
-        <v>1388.162932743222</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X40" t="n">
-        <v>1388.162932743222</v>
+        <v>732.1246409340625</v>
       </c>
       <c r="Y40" t="n">
-        <v>1317.84531628555</v>
+        <v>505.7818726238046</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1780.689568770218</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="C41" t="n">
-        <v>1353.788838783518</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="D41" t="n">
-        <v>930.4962179685185</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="E41" t="n">
-        <v>504.5192781163761</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="F41" t="n">
         <v>79.39509630577632</v>
@@ -7408,55 +7408,55 @@
         <v>79.39509630577632</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J41" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K41" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L41" t="n">
-        <v>1123.5801824935</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M41" t="n">
-        <v>1674.245717477938</v>
+        <v>2059.098288819458</v>
       </c>
       <c r="N41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="O41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R41" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S41" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T41" t="n">
-        <v>2224.911252462376</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U41" t="n">
-        <v>2200.537933061748</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V41" t="n">
-        <v>2200.537933061748</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W41" t="n">
-        <v>2200.537933061748</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X41" t="n">
-        <v>2200.537933061748</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="Y41" t="n">
-        <v>2200.537933061748</v>
+        <v>482.0454433580491</v>
       </c>
     </row>
     <row r="42">
@@ -7478,34 +7478,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F42" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G42" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J42" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K42" t="n">
-        <v>595.1637600336855</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="L42" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="M42" t="n">
-        <v>1145.829295018124</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N42" t="n">
         <v>1302.520320645319</v>
       </c>
       <c r="O42" t="n">
-        <v>1853.185855629757</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="P42" t="n">
         <v>1853.185855629757</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>884.1145108219148</v>
+        <v>784.5225687761917</v>
       </c>
       <c r="C43" t="n">
-        <v>712.1419477008308</v>
+        <v>612.5500056551077</v>
       </c>
       <c r="D43" t="n">
-        <v>548.8251748276015</v>
+        <v>449.2332327818784</v>
       </c>
       <c r="E43" t="n">
-        <v>382.616968980455</v>
+        <v>283.025026934732</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7551947550154</v>
+        <v>283.025026934732</v>
       </c>
       <c r="G43" t="n">
-        <v>44.49822504924752</v>
+        <v>283.025026934732</v>
       </c>
       <c r="H43" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I43" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J43" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K43" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L43" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M43" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N43" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O43" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P43" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R43" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S43" t="n">
-        <v>2224.911252462376</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T43" t="n">
-        <v>1981.571904688276</v>
+        <v>1811.436857207411</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.571904688276</v>
+        <v>1531.252408707716</v>
       </c>
       <c r="V43" t="n">
-        <v>1818.03954822592</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W43" t="n">
-        <v>1543.187144398433</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="X43" t="n">
-        <v>1300.623247844238</v>
+        <v>974.6885374882575</v>
       </c>
       <c r="Y43" t="n">
-        <v>1074.28047953398</v>
+        <v>974.6885374882575</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>781.6025372422929</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="C44" t="n">
-        <v>781.6025372422929</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="D44" t="n">
-        <v>781.6025372422929</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="E44" t="n">
-        <v>781.6025372422929</v>
+        <v>1171.829847796364</v>
       </c>
       <c r="F44" t="n">
-        <v>781.6025372422929</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G44" t="n">
-        <v>377.2634748317415</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H44" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I44" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J44" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K44" t="n">
-        <v>957.7672188505811</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L44" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="N44" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O44" t="n">
-        <v>1100.603903091852</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P44" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q44" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R44" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S44" t="n">
-        <v>2120.543958335516</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T44" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U44" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V44" t="n">
-        <v>1283.774063102811</v>
+        <v>1994.19813734816</v>
       </c>
       <c r="W44" t="n">
-        <v>887.3827134031583</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="X44" t="n">
-        <v>887.3827134031583</v>
+        <v>1597.806787648507</v>
       </c>
       <c r="Y44" t="n">
-        <v>781.6025372422929</v>
+        <v>1597.806787648507</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F45" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G45" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H45" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I45" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J45" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K45" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L45" t="n">
-        <v>602.6104029955974</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M45" t="n">
-        <v>602.6104029955974</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N45" t="n">
-        <v>602.6104029955974</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O45" t="n">
-        <v>838.3748437825399</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P45" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q45" t="n">
         <v>1853.185855629757</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1003.942702994191</v>
+        <v>675.9169201046697</v>
       </c>
       <c r="C46" t="n">
-        <v>831.9701398731067</v>
+        <v>675.9169201046697</v>
       </c>
       <c r="D46" t="n">
-        <v>792.3900115791711</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E46" t="n">
-        <v>626.1818057320246</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F46" t="n">
-        <v>454.3200315065851</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G46" t="n">
-        <v>288.0630618008172</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H46" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I46" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J46" t="n">
         <v>101.9895532734055</v>
       </c>
       <c r="K46" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L46" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M46" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O46" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P46" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S46" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T46" t="n">
-        <v>2224.911252462376</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U46" t="n">
-        <v>1944.72680396268</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V46" t="n">
-        <v>1663.015336570709</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W46" t="n">
-        <v>1663.015336570709</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X46" t="n">
-        <v>1420.451440016514</v>
+        <v>902.2596884149276</v>
       </c>
       <c r="Y46" t="n">
-        <v>1194.108671706256</v>
+        <v>675.9169201046697</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M2" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>361.589074527822</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q3" t="n">
-        <v>183.5407536736399</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>167.8347719225297</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8154,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>68.71811917318252</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>360.4858157331554</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
@@ -8233,7 +8233,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705654</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8291,22 +8291,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>465.1567191589066</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726621</v>
+        <v>183.8904958969889</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8315,7 +8315,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8376,7 +8376,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8455,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>114.7742293394935</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>190.7148107956833</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N10" t="n">
         <v>402.0534574160406</v>
@@ -8631,7 +8631,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8695,7 +8695,7 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929571</v>
+        <v>457.4595408934818</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
@@ -8704,16 +8704,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>114.0667271187383</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8774,10 +8774,10 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L12" t="n">
-        <v>190.8306636765795</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8868,7 +8868,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>114.7742293394935</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
-        <v>465.2725720398028</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425364</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>170.5153675464292</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9166,7 +9166,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
         <v>38.31204243262292</v>
@@ -9175,19 +9175,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>456.4271212953047</v>
       </c>
       <c r="O17" t="n">
-        <v>113.8823246645311</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P17" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,22 +9248,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>99.28895563385629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>100.6929657092928</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9321,16 +9321,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>335.7669652041454</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9339,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>497.1645065551435</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L20" t="n">
         <v>38.31204243262292</v>
@@ -9415,13 +9415,13 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.1383873221887</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
@@ -9485,7 +9485,7 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>191.4874666845721</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>483.1707469651628</v>
+        <v>99.71676862514295</v>
       </c>
       <c r="Q21" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
-        <v>380.1908016072373</v>
+        <v>363.7289145841511</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9573,13 +9573,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P22" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>300.4545145390012</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P23" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298235</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3705437721217</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>591.9924139104032</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>594.5398555482168</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>593.50743595004</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O26" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,28 +9956,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>578.6270469489273</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L27" t="n">
-        <v>180.7888499740234</v>
+        <v>185.3350601123618</v>
       </c>
       <c r="M27" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>579.3997028378161</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,13 +10123,13 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>181.5591018660331</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O29" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P29" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10193,28 +10193,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L30" t="n">
-        <v>578.7428998298236</v>
+        <v>185.3350601123618</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>179.6167914733353</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10351,25 +10351,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>591.9924139104032</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L32" t="n">
-        <v>594.5398555482168</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M32" t="n">
-        <v>86.17533235500345</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10424,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>579.3245936279219</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>577.5708413291355</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q33" t="n">
-        <v>462.8067063011428</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10588,28 +10588,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M35" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>593.5074359500401</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>205.0632038737858</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L36" t="n">
-        <v>462.5747547263938</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>577.5708413291356</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>460.2559062950365</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10755,7 +10755,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>402.0534574160413</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10825,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10837,10 +10837,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>181.6704383876112</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>180.6729970931269</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L39" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
         <v>23.09678051232798</v>
@@ -10916,13 +10916,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>577.9986543204227</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11001,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039387</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L41" t="n">
-        <v>205.799884496177</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M41" t="n">
-        <v>593.6590760150258</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N41" t="n">
-        <v>593.5074359500401</v>
+        <v>204.7674648980005</v>
       </c>
       <c r="O41" t="n">
         <v>37.3909593560241</v>
@@ -11141,22 +11141,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>578.6270469489274</v>
+        <v>180.6729970931265</v>
       </c>
       <c r="L42" t="n">
-        <v>578.7428998298236</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>179.6167914733354</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O42" t="n">
-        <v>579.3997028378162</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11235,7 +11235,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548565</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
         <v>152.9025226039384</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>591.9924139104033</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L44" t="n">
-        <v>182.59152146421</v>
+        <v>182.5915214642101</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11314,7 +11314,7 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>593.8031749258253</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
@@ -11381,22 +11381,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>578.7428998298236</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O45" t="n">
-        <v>261.3177895070126</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P45" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -11457,7 +11457,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
@@ -11475,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039387</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22558,13 +22558,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>78.78298826849448</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>154.7775215424914</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -22600,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22609,10 +22609,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22716,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34.30926288578769</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>17.51241200262803</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>66.78041021253807</v>
       </c>
       <c r="H5" t="n">
-        <v>196.4861123455685</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,7 +22840,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.09136778611504</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22950,16 +22950,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>252.9025712339533</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>199.4158797593197</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23074,10 +23074,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -23086,10 +23086,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>276.5259330086136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,19 +23184,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>85.59327297128287</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
@@ -23278,7 +23278,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>248.9949814519883</v>
+        <v>320.6561122117124</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.05282430997106</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>166.2344173054113</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>185.8173356927546</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>50.64550676031955</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -23709,13 +23709,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5634614771283</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>396.910027022376</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>376.9870981264731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23943,22 +23943,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>190.3133664762872</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.121631113674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>276.4523904525673</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -23977,16 +23977,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>179.1025228543983</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>101.4207812742427</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>87.69462746924223</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24180,7 +24180,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>371.7290640714078</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>158.6899992158468</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>68.10191868181128</v>
       </c>
       <c r="F25" t="n">
-        <v>165.7641609568373</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
@@ -24451,16 +24451,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>155.642759299341</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>331.5047744554054</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.98949189919276</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>125.8003826660208</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.826944407646</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>189.2907487102055</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>71.98949189919226</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>119.3731443343476</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>255.4058996719153</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>186.4188768581086</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>66.28277819799368</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>395.159997613625</v>
       </c>
       <c r="F35" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>49.97719697033006</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>92.30572203216272</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>117.2205539080141</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8039523344741</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>196.2725907484236</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>63.52994056050366</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.46490033406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>17.02603706686472</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>231.64177410293</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>4.987654517424374</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>116.9973198203193</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>125.5085367619383</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.5615229454019</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>122.4992781335007</v>
+        <v>13.62668311841639</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>444061.4447821186</v>
+        <v>444061.4447821185</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>444061.4447821186</v>
+        <v>444061.4447821187</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>444061.4447821186</v>
+        <v>444061.4447821188</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>444061.4447821186</v>
+        <v>444061.4447821187</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>444061.4447821185</v>
+        <v>444061.4447821186</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>444061.4447821186</v>
+        <v>444061.4447821187</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>500374.179592921</v>
+        <v>500374.1795929212</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>500374.179592921</v>
+        <v>500374.1795929212</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>500374.179592921</v>
+        <v>500374.1795929212</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>500374.179592921</v>
+        <v>500374.1795929212</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>500374.179592921</v>
+        <v>500374.1795929212</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>500374.179592921</v>
+        <v>500374.1795929211</v>
       </c>
     </row>
   </sheetData>
@@ -26334,7 +26334,7 @@
         <v>112762.0272804593</v>
       </c>
       <c r="I2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="J2" t="n">
         <v>127059.143630737</v>
@@ -26346,7 +26346,7 @@
         <v>127059.1436307371</v>
       </c>
       <c r="M2" t="n">
-        <v>127059.1436307371</v>
+        <v>127059.143630737</v>
       </c>
       <c r="N2" t="n">
         <v>127059.143630737</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>25216.73195181803</v>
+        <v>25216.73195181807</v>
       </c>
       <c r="J3" t="n">
         <v>120722.5169427569</v>
@@ -26429,7 +26429,7 @@
         <v>31000.78171447197</v>
       </c>
       <c r="F4" t="n">
-        <v>31000.78171447198</v>
+        <v>31000.78171447197</v>
       </c>
       <c r="G4" t="n">
         <v>31000.78171447197</v>
@@ -26438,16 +26438,16 @@
         <v>31000.78171447197</v>
       </c>
       <c r="I4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="J4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="K4" t="n">
-        <v>34949.1061971525</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="L4" t="n">
-        <v>34949.10619715248</v>
+        <v>34949.10619715251</v>
       </c>
       <c r="M4" t="n">
         <v>34949.1061971525</v>
@@ -26456,10 +26456,10 @@
         <v>34949.1061971525</v>
       </c>
       <c r="O4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
       <c r="P4" t="n">
-        <v>34949.10619715249</v>
+        <v>34949.1061971525</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="J5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="K5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="L5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="M5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="N5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="O5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
       <c r="P5" t="n">
-        <v>33818.65103742811</v>
+        <v>33818.65103742812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-134545.1893223615</v>
+        <v>-135249.549143853</v>
       </c>
       <c r="C6" t="n">
-        <v>20080.53129575898</v>
+        <v>19376.17147426752</v>
       </c>
       <c r="D6" t="n">
-        <v>20080.53129575898</v>
+        <v>19376.17147426748</v>
       </c>
       <c r="E6" t="n">
-        <v>53708.13129575898</v>
+        <v>53003.77147426748</v>
       </c>
       <c r="F6" t="n">
-        <v>53708.13129575898</v>
+        <v>53003.77147426745</v>
       </c>
       <c r="G6" t="n">
-        <v>53708.13129575898</v>
+        <v>53003.77147426745</v>
       </c>
       <c r="H6" t="n">
-        <v>53708.13129575898</v>
+        <v>53003.77147426749</v>
       </c>
       <c r="I6" t="n">
-        <v>33074.65444433846</v>
+        <v>32465.60873184866</v>
       </c>
       <c r="J6" t="n">
-        <v>-62431.13054660047</v>
+        <v>-63040.17625909014</v>
       </c>
       <c r="K6" t="n">
-        <v>58291.38639615646</v>
+        <v>57682.34068366679</v>
       </c>
       <c r="L6" t="n">
-        <v>58291.38639615648</v>
+        <v>57682.34068366679</v>
       </c>
       <c r="M6" t="n">
-        <v>58291.38639615646</v>
+        <v>57682.34068366676</v>
       </c>
       <c r="N6" t="n">
-        <v>58291.3863961564</v>
+        <v>57682.34068366676</v>
       </c>
       <c r="O6" t="n">
-        <v>58291.38639615644</v>
+        <v>57682.34068366673</v>
       </c>
       <c r="P6" t="n">
-        <v>58291.38639615643</v>
+        <v>57682.34068366676</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L4" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>94.82790735525975</v>
+        <v>94.82790735525992</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M2" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603341</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.7937153846614</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>146.8701174698177</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34874,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>46.33731851519604</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>324.7212149383461</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>442.7574853255733</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603341</v>
+        <v>160.7937153846609</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>77.1988675292622</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>168.31557696235</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N10" t="n">
         <v>381.3045564404402</v>
@@ -35351,7 +35351,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L12" t="n">
-        <v>168.3155769623499</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35588,7 +35588,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>77.1988675292622</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L15" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031416</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>147.9399276549434</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35886,7 +35886,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35895,19 +35895,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603341</v>
+        <v>419.1474984608587</v>
       </c>
       <c r="O17" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P17" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="R18" t="n">
         <v>82.84778796434657</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>313.1915253126596</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36059,10 +36059,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -36135,13 +36135,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.0137127175907</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>168.3155769623499</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>461.3999057603341</v>
+        <v>77.94592742031428</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115361</v>
+        <v>341.8101546884499</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36293,13 +36293,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>359.0183117977405</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>263.0232516395694</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P23" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q23" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>158.2737632597938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36676,28 +36676,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L27" t="n">
-        <v>158.2737632597939</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="M27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,13 +36843,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>144.2794790315871</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O29" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P29" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q29" t="n">
         <v>460.6924035395789</v>
@@ -36913,28 +36913,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L30" t="n">
-        <v>556.227813115594</v>
+        <v>162.8199733981322</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>158.2737632597936</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K31" t="n">
         <v>228.8157587937749</v>
@@ -37071,25 +37071,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>556.2278131155939</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L32" t="n">
-        <v>556.2278131155939</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M32" t="n">
-        <v>48.74406945557163</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>556.2278131155939</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q33" t="n">
-        <v>440.0596680121643</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K34" t="n">
         <v>228.8157587937749</v>
@@ -37308,28 +37308,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M35" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>167.4878420635545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L36" t="n">
-        <v>440.0596680121643</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404409</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37545,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>144.2794790315871</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>158.2737632597936</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37721,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391538</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L41" t="n">
-        <v>167.4878420635541</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M41" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N41" t="n">
-        <v>556.227813115594</v>
+        <v>167.4878420635545</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>556.227813115594</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="L42" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>158.2737632597938</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O42" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37955,7 +37955,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>293.53455749687</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
         <v>128.2829598391535</v>
@@ -38019,10 +38019,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L44" t="n">
-        <v>144.2794790315871</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>556.227813115594</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O45" t="n">
-        <v>238.1458997847904</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P45" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
@@ -38195,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391538</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
